--- a/doc/指令信号.xlsx
+++ b/doc/指令信号.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\课件\计原\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\课件\计原\MIPS-CPU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5748" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5748"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="211">
   <si>
     <t>ADDIU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(7:0) sign extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ExtendType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(3:0) sign extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADDSP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(10:0) sign extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BEQZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,6 +444,430 @@
   </si>
   <si>
     <t>ALU输出为原输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU输出为T寄存器应该写入的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于0置T为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于0置T为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JALR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-11000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110100000100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7:0) unsigned extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10:0) signed extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3:0) signed extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7:0) signed extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4:0) signed extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW_SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFIH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01111-00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11110-00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-01000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTIH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11110-00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100100-00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-01101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按位或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1'&amp;(10:8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4:2) unsigned extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑左移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算数右移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11100-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1'&amp;(4:2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW_SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,16 +1207,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
@@ -814,10 +1226,13 @@
     <col min="9" max="9" width="12.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="12" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="10.5546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -825,34 +1240,43 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -860,235 +1284,916 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>84</v>
+      <c r="H11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1100,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1123,263 +2228,370 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>94</v>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/doc/指令信号.xlsx
+++ b/doc/指令信号.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\shared\MIPS-CPU\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\课件\计原\MIPS-CPU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5748"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="238">
   <si>
     <t>ADDIU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,6 +943,38 @@
   </si>
   <si>
     <t>零寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-00000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1282,33 +1314,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="17.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
-    <col min="12" max="13" width="8.875" style="2"/>
-    <col min="14" max="14" width="10.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="2"/>
+    <col min="12" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="10.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1387,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1425,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1431,7 +1463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -1469,7 +1501,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -1507,7 +1539,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -1545,7 +1577,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -1577,7 +1609,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -1612,47 +1644,47 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>231</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>108</v>
@@ -1661,7 +1693,7 @@
         <v>218</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1670,86 +1702,80 @@
         <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="2" t="s">
+      <c r="N11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>228</v>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>102</v>
@@ -1758,65 +1784,72 @@
         <v>95</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>226</v>
+      <c r="D14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>95</v>
@@ -1825,141 +1858,135 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>102</v>
@@ -1968,27 +1995,27 @@
         <v>95</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>143</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>196</v>
@@ -2000,24 +2027,24 @@
         <v>98</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>95</v>
@@ -2035,30 +2062,30 @@
         <v>102</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>138</v>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>196</v>
@@ -2067,298 +2094,368 @@
         <v>163</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
+      <c r="E23" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>178</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="N25" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>169</v>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>163</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>162</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>138</v>
+        <v>168</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>218</v>
+        <v>50</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>179</v>
       </c>
       <c r="N29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="N30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2373,18 +2470,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2392,7 +2489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>206</v>
       </c>
@@ -2400,7 +2497,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
@@ -2408,7 +2505,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>220</v>
       </c>
@@ -2416,7 +2513,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>221</v>
       </c>
@@ -2424,7 +2521,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>222</v>
       </c>
@@ -2432,7 +2529,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>223</v>
       </c>
@@ -2440,7 +2537,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2448,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2553,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2464,7 +2561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2472,7 +2569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2480,7 +2577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2488,7 +2585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>108</v>
       </c>
@@ -2496,7 +2593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>228</v>
       </c>
@@ -2504,7 +2601,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -2512,7 +2609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2520,7 +2617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2528,7 +2625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2536,7 +2633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2544,7 +2641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -2552,7 +2649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -2560,7 +2657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -2568,7 +2665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2576,7 +2673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -2584,7 +2681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -2592,7 +2689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -2600,7 +2697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -2608,7 +2705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -2616,7 +2713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2624,7 +2721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -2632,7 +2729,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -2640,7 +2737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -2648,7 +2745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -2656,7 +2753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -2664,7 +2761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
@@ -2672,7 +2769,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -2680,7 +2777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
@@ -2688,7 +2785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
@@ -2696,7 +2793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -2704,7 +2801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -2712,7 +2809,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -2720,7 +2817,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -2728,7 +2825,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2736,7 +2833,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
@@ -2744,7 +2841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -2752,7 +2849,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>95</v>
       </c>
@@ -2760,7 +2857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -2768,7 +2865,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>185</v>
       </c>
@@ -2776,7 +2873,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -2784,7 +2881,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
@@ -2792,7 +2889,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
@@ -2800,7 +2897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>198</v>
       </c>
@@ -2808,7 +2905,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>200</v>
       </c>
@@ -2816,7 +2913,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>202</v>
       </c>
@@ -2824,7 +2921,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>204</v>
       </c>
@@ -2832,7 +2929,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -2840,7 +2937,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>214</v>
       </c>

--- a/doc/指令信号.xlsx
+++ b/doc/指令信号.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="240">
   <si>
     <t>ADDIU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,11 +339,637 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非J指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTEQZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTNEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-01010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU输出为原输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU输出为T寄存器应该写入的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于0置T为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于0置T为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JALR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-11000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110100000100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7:0) unsigned extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10:0) signed extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3:0) signed extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7:0) signed extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4:0) signed extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW_SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFIH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01111-00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11110-00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-01000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTIH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11110-00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100100-00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000100000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-01101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1'&amp;(10:8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4:2) unsigned extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11100-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1'&amp;(4:2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW_SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出ALU结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出RegB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按位与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑左移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算数右移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按位或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101-00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEResultSelect</t>
+  </si>
+  <si>
     <t>00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01</t>
+    <t>不跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -351,630 +977,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非J指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTEQZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTNEZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11101-01010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU输出为原输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU输出为T寄存器应该写入的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ttype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等于0置T为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于0置T为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ttype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JALR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11101-11000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JRRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1110100000100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7:0) unsigned extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(10:0) signed extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3:0) signed extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7:0) signed extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4:0) signed extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非使能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LW_SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFIH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01111-00000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11110-00000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11101-01000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTIH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11110-00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01100100-00000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000100000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11101-01101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00110-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'1'&amp;(10:8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4:2) unsigned extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11101-00010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00110-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11100-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'1'&amp;(4:2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW_SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出ALU结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出RegB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutputRegB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号加法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号减法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按位与</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑左移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算数右移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按位或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零寄存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNEZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11101-00000000</t>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1366,25 +1373,25 @@
         <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1401,7 +1408,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>37</v>
@@ -1410,19 +1417,19 @@
         <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1439,7 +1446,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>37</v>
@@ -1448,19 +1455,19 @@
         <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1474,10 +1481,10 @@
         <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>37</v>
@@ -1486,19 +1493,19 @@
         <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1524,19 +1531,19 @@
         <v>58</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1562,19 +1569,19 @@
         <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1585,10 +1592,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1597,16 +1604,16 @@
         <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1620,10 +1627,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1632,68 +1639,68 @@
         <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1702,33 +1709,33 @@
         <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1737,24 +1744,24 @@
         <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
@@ -1763,36 +1770,36 @@
         <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -1802,132 +1809,132 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -1936,144 +1943,144 @@
         <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>50</v>
@@ -2082,126 +2089,126 @@
         <v>35</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="O21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
@@ -2213,71 +2220,71 @@
         <v>35</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>50</v>
@@ -2286,39 +2293,39 @@
         <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>50</v>
@@ -2327,36 +2334,36 @@
         <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>35</v>
@@ -2365,36 +2372,36 @@
         <v>50</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="P29" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>35</v>
@@ -2403,60 +2410,60 @@
         <v>50</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2470,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2491,50 +2498,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2550,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2587,7 +2594,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -2595,10 +2602,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2723,26 +2730,34 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2773,7 @@
         <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2771,7 +2786,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>73</v>
@@ -2782,111 +2797,111 @@
         <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,55 +2909,55 @@
         <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/doc/指令信号.xlsx
+++ b/doc/指令信号.xlsx
@@ -1448,7 +1448,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1456,9 +1456,8 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
-    <col min="4" max="7" width="13.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="13.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="4" max="10" width="13.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" hidden="1" customWidth="1"/>
     <col min="12" max="17" width="13.44140625" style="2" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -2689,7 +2688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/doc/指令信号.xlsx
+++ b/doc/指令信号.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="268">
   <si>
     <t>ADDIU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,10 +839,6 @@
   </si>
   <si>
     <t>010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1448,7 +1444,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1456,8 +1452,8 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
-    <col min="4" max="10" width="13.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="13.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="17" width="13.44140625" style="2" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -1467,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1506,10 +1502,10 @@
         <v>123</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1520,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>35</v>
@@ -1547,10 +1543,10 @@
         <v>112</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1561,7 +1557,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>35</v>
@@ -1588,10 +1584,10 @@
         <v>112</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1602,7 +1598,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1629,10 +1625,10 @@
         <v>112</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1640,10 +1636,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>35</v>
@@ -1670,10 +1666,10 @@
         <v>91</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1684,7 +1680,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>35</v>
@@ -1711,10 +1707,10 @@
         <v>91</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1725,7 +1721,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>204</v>
@@ -1746,10 +1742,10 @@
         <v>91</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1760,16 +1756,16 @@
         <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1784,48 +1780,48 @@
         <v>91</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1836,7 +1832,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>104</v>
@@ -1860,10 +1856,10 @@
         <v>91</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1874,7 +1870,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>104</v>
@@ -1883,7 +1879,7 @@
         <v>199</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1898,10 +1894,10 @@
         <v>112</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1912,7 +1908,7 @@
         <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>35</v>
@@ -1933,7 +1929,7 @@
         <v>194</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>98</v>
@@ -1942,21 +1938,21 @@
         <v>91</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>35</v>
@@ -1966,19 +1962,19 @@
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>107</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1989,13 +1985,13 @@
         <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>155</v>
@@ -2019,10 +2015,10 @@
         <v>91</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2030,10 +2026,10 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>155</v>
@@ -2051,10 +2047,10 @@
         <v>91</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2065,13 +2061,13 @@
         <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>98</v>
@@ -2089,10 +2085,10 @@
         <v>91</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2103,7 +2099,7 @@
         <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>35</v>
@@ -2112,7 +2108,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>119</v>
@@ -2130,10 +2126,10 @@
         <v>107</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2144,7 +2140,7 @@
         <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>132</v>
@@ -2171,10 +2167,10 @@
         <v>91</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2185,7 +2181,7 @@
         <v>137</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>106</v>
@@ -2209,10 +2205,10 @@
         <v>133</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2223,7 +2219,7 @@
         <v>138</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>129</v>
@@ -2247,10 +2243,10 @@
         <v>91</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2261,7 +2257,7 @@
         <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>50</v>
@@ -2285,10 +2281,10 @@
         <v>91</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2299,7 +2295,7 @@
         <v>140</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>35</v>
@@ -2323,10 +2319,10 @@
         <v>141</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2337,7 +2333,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>50</v>
@@ -2361,10 +2357,10 @@
         <v>92</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2375,7 +2371,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>178</v>
@@ -2387,10 +2383,10 @@
         <v>92</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2401,7 +2397,7 @@
         <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>35</v>
@@ -2428,10 +2424,10 @@
         <v>91</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2442,7 +2438,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>50</v>
@@ -2469,10 +2465,10 @@
         <v>91</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2483,13 +2479,13 @@
         <v>154</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>104</v>
@@ -2513,10 +2509,10 @@
         <v>157</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2527,7 +2523,7 @@
         <v>159</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>50</v>
@@ -2554,10 +2550,10 @@
         <v>157</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2568,7 +2564,7 @@
         <v>162</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>35</v>
@@ -2595,10 +2591,10 @@
         <v>165</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2609,7 +2605,7 @@
         <v>167</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>35</v>
@@ -2618,7 +2614,7 @@
         <v>50</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>168</v>
@@ -2633,10 +2629,10 @@
         <v>169</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2647,7 +2643,7 @@
         <v>171</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>132</v>
@@ -2671,10 +2667,10 @@
         <v>160</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +2764,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,7 +2809,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>105</v>
@@ -2941,10 +2937,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2961,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>74</v>
@@ -3093,7 +3089,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>172</v>
